--- a/testdata/miniproject_dataa.xlsx
+++ b/testdata/miniproject_dataa.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
   <si>
     <t>Admin</t>
   </si>
@@ -200,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -216,6 +216,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
@@ -608,10 +644,10 @@
       <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" t="s" s="42">
         <v>19</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" t="s" s="43">
         <v>20</v>
       </c>
       <c r="E2" t="s" s="0">
@@ -626,7 +662,7 @@
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="I2" t="s" s="44">
         <v>18</v>
       </c>
     </row>
@@ -637,10 +673,10 @@
       <c r="B3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" t="s" s="45">
         <v>19</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="D3" t="s" s="46">
         <v>20</v>
       </c>
       <c r="E3" t="s" s="0">
@@ -655,7 +691,7 @@
       <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s" s="11">
+      <c r="I3" t="s" s="47">
         <v>18</v>
       </c>
     </row>
@@ -666,17 +702,17 @@
       <c r="B4" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" t="s" s="48">
         <v>19</v>
       </c>
-      <c r="D4" t="s" s="13">
+      <c r="D4" t="s" s="49">
         <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>9</v>
@@ -684,8 +720,8 @@
       <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s" s="14">
-        <v>17</v>
+      <c r="I4" t="s" s="50">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -695,10 +731,10 @@
       <c r="B5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" t="s" s="51">
         <v>23</v>
       </c>
-      <c r="D5" t="s" s="16">
+      <c r="D5" t="s" s="52">
         <v>24</v>
       </c>
       <c r="E5" t="s" s="0">
@@ -713,7 +749,7 @@
       <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s" s="17">
+      <c r="I5" t="s" s="53">
         <v>18</v>
       </c>
     </row>
